--- a/content/blog/2022-09-25-for-loop-for-multiple-trend-in-proportions/output/MyResults_TestForTrendInProportions.xlsx
+++ b/content/blog/2022-09-25-for-loop-for-multiple-trend-in-proportions/output/MyResults_TestForTrendInProportions.xlsx
@@ -446,19 +446,19 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
         <v>3</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>1.57051282051282</v>
+        <v>0.600600600600602</v>
       </c>
       <c r="I2" t="n">
-        <v>0.210132555374333</v>
+        <v>0.438348961461724</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -471,7 +471,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -480,7 +480,7 @@
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -500,19 +500,19 @@
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0310800310800308</v>
+        <v>0.0120120120120121</v>
       </c>
       <c r="I4" t="n">
-        <v>0.860061958100425</v>
+        <v>0.912727146108879</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
@@ -525,16 +525,16 @@
         <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -551,22 +551,22 @@
         <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>4.61538461538461</v>
+        <v>9.65250965250966</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0316863885397939</v>
+        <v>0.00189093067828876</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -579,182 +579,20 @@
         <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.00841750841750849</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.926899069788613</v>
-      </c>
-      <c r="J8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3</v>
-      </c>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
-      </c>
-      <c r="G10" t="n">
-        <v>4</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.0824175824175821</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.774047523697564</v>
-      </c>
-      <c r="J10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.134680134680134</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.713628027472914</v>
-      </c>
-      <c r="J12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
